--- a/학습자료/단답형/한국사 개혁.xlsx
+++ b/학습자료/단답형/한국사 개혁.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test\Documents\GitHub\Private-Quizlet\학습자료\단답형\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\PycharmProjects\study_new\학습자료\단답형\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEA5F32-68CD-4069-A388-048F13953E1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="167">
   <si>
     <t>대답</t>
   </si>
@@ -622,11 +621,18 @@
   <si>
     <t>의정부와 6조 외의 불필요한 관청은 모두 없앤다</t>
   </si>
+  <si>
+    <t>방곡령 반포를 금지했다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>산업정책을 담당하는 공무아문을 설치하였다</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1010,20 +1016,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D147"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146:A147"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117:C120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.58203125" customWidth="1"/>
-    <col min="2" max="2" width="45.9140625" customWidth="1"/>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="45.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1037,7 +1043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -1051,7 +1057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1065,7 +1071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1079,7 +1085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1093,7 +1099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1107,7 +1113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1121,7 +1127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1135,7 +1141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1149,7 +1155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1163,7 +1169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1177,7 +1183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1191,7 +1197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1205,7 +1211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1219,7 +1225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1233,7 +1239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1247,7 +1253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1261,7 +1267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1275,7 +1281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1289,7 +1295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1303,7 +1309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1317,7 +1323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1331,7 +1337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1345,7 +1351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1359,7 +1365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1373,7 +1379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1387,7 +1393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1401,7 +1407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1415,7 +1421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1429,7 +1435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1443,7 +1449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -1457,7 +1463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1471,7 +1477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1485,7 +1491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1499,7 +1505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -1513,7 +1519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -1521,7 +1527,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1529,7 +1535,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -1537,7 +1543,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1545,7 +1551,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1553,7 +1559,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1561,7 +1567,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1569,7 +1575,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -1577,7 +1583,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -1585,7 +1591,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -1593,7 +1599,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -1601,7 +1607,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -1609,7 +1615,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -1617,7 +1623,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -1625,7 +1631,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>43</v>
       </c>
@@ -1633,7 +1639,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -1641,7 +1647,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -1649,7 +1655,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -1657,7 +1663,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -1665,7 +1671,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -1673,7 +1679,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -1681,7 +1687,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>43</v>
       </c>
@@ -1689,7 +1695,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>35</v>
       </c>
@@ -1697,7 +1703,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>43</v>
       </c>
@@ -1705,7 +1711,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -1713,7 +1719,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -1721,7 +1727,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -1729,7 +1735,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>43</v>
       </c>
@@ -1737,7 +1743,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -1745,7 +1751,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -1753,7 +1759,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -1761,7 +1767,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -1769,7 +1775,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>57</v>
       </c>
@@ -1777,7 +1783,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>57</v>
       </c>
@@ -1785,7 +1791,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>57</v>
       </c>
@@ -1793,7 +1799,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>57</v>
       </c>
@@ -1801,7 +1807,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -1809,7 +1815,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>43</v>
       </c>
@@ -1817,7 +1823,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>35</v>
       </c>
@@ -1825,7 +1831,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -1833,7 +1839,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>35</v>
       </c>
@@ -1841,7 +1847,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>35</v>
       </c>
@@ -1849,7 +1855,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>35</v>
       </c>
@@ -1857,7 +1863,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>35</v>
       </c>
@@ -1865,7 +1871,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>35</v>
       </c>
@@ -1873,7 +1879,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>35</v>
       </c>
@@ -1881,7 +1887,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>43</v>
       </c>
@@ -1889,7 +1895,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>77</v>
       </c>
@@ -1897,7 +1903,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -1905,7 +1911,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>43</v>
       </c>
@@ -1913,7 +1919,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>43</v>
       </c>
@@ -1921,7 +1927,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -1929,7 +1935,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -1937,7 +1943,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>59</v>
       </c>
@@ -1945,7 +1951,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>59</v>
       </c>
@@ -1953,7 +1959,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>59</v>
       </c>
@@ -1961,7 +1967,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>59</v>
       </c>
@@ -1969,7 +1975,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>59</v>
       </c>
@@ -1977,7 +1983,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>59</v>
       </c>
@@ -1985,7 +1991,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>59</v>
       </c>
@@ -1993,7 +1999,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>59</v>
       </c>
@@ -2001,7 +2007,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>59</v>
       </c>
@@ -2009,7 +2015,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>59</v>
       </c>
@@ -2017,7 +2023,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>59</v>
       </c>
@@ -2025,7 +2031,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="51" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>59</v>
       </c>
@@ -2033,7 +2039,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>77</v>
       </c>
@@ -2041,7 +2047,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>43</v>
       </c>
@@ -2049,7 +2055,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>59</v>
       </c>
@@ -2057,7 +2063,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>59</v>
       </c>
@@ -2065,7 +2071,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>43</v>
       </c>
@@ -2073,7 +2079,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>59</v>
       </c>
@@ -2081,7 +2087,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>59</v>
       </c>
@@ -2089,7 +2095,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>59</v>
       </c>
@@ -2097,7 +2103,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>43</v>
       </c>
@@ -2105,7 +2111,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>59</v>
       </c>
@@ -2113,7 +2119,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>59</v>
       </c>
@@ -2121,7 +2127,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>59</v>
       </c>
@@ -2129,7 +2135,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>77</v>
       </c>
@@ -2137,7 +2143,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>57</v>
       </c>
@@ -2145,7 +2151,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>43</v>
       </c>
@@ -2153,7 +2159,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>77</v>
       </c>
@@ -2161,40 +2167,40 @@
         <v>129</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>130</v>
       </c>
       <c r="B117" t="s">
         <v>134</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>131</v>
       </c>
       <c r="B118" t="s">
         <v>156</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>132</v>
       </c>
       <c r="B119" t="s">
         <v>133</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>13</v>
       </c>
@@ -2202,7 +2208,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>59</v>
       </c>
@@ -2210,7 +2216,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>59</v>
       </c>
@@ -2218,7 +2224,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>59</v>
       </c>
@@ -2226,7 +2232,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>59</v>
       </c>
@@ -2234,7 +2240,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>59</v>
       </c>
@@ -2242,7 +2248,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>59</v>
       </c>
@@ -2250,7 +2256,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>43</v>
       </c>
@@ -2258,7 +2264,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>77</v>
       </c>
@@ -2266,7 +2272,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>59</v>
       </c>
@@ -2274,7 +2280,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>59</v>
       </c>
@@ -2282,7 +2288,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>43</v>
       </c>
@@ -2290,7 +2296,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>43</v>
       </c>
@@ -2298,7 +2304,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>59</v>
       </c>
@@ -2306,7 +2312,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>59</v>
       </c>
@@ -2314,7 +2320,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>43</v>
       </c>
@@ -2322,7 +2328,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>49</v>
       </c>
@@ -2330,7 +2336,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>49</v>
       </c>
@@ -2338,7 +2344,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>49</v>
       </c>
@@ -2346,7 +2352,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>49</v>
       </c>
@@ -2354,7 +2360,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>49</v>
       </c>
@@ -2362,7 +2368,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>49</v>
       </c>
@@ -2370,7 +2376,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>49</v>
       </c>
@@ -2378,7 +2384,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>49</v>
       </c>
@@ -2386,7 +2392,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>35</v>
       </c>
@@ -2394,7 +2400,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>35</v>
       </c>
@@ -2402,7 +2408,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>13</v>
       </c>
@@ -2410,12 +2416,28 @@
         <v>163</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>13</v>
       </c>
       <c r="B147" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>59</v>
+      </c>
+      <c r="B148" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>59</v>
+      </c>
+      <c r="B149" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
